--- a/7rmmartSupermarket/src/test/resources/TestData.xlsx
+++ b/7rmmartSupermarket/src/test/resources/TestData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRANAV\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRANAV\git\projects7rmmart\7rmmartSupermarket\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310"/>
   </bookViews>
   <sheets>
     <sheet name="loginpage" sheetId="1" r:id="rId1"/>
@@ -460,7 +460,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -689,7 +689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/7rmmartSupermarket/src/test/resources/TestData.xlsx
+++ b/7rmmartSupermarket/src/test/resources/TestData.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRANAV\git\projects7rmmart\7rmmartSupermarket\src\test\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18540" windowHeight="5930"/>
   </bookViews>
   <sheets>
     <sheet name="loginpage" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,8 @@
     <sheet name="managecategory" sheetId="5" r:id="rId5"/>
     <sheet name="managefooter" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:L9"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -461,7 +457,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
